--- a/Ejemplos Mutante - No Mutante.xlsx
+++ b/Ejemplos Mutante - No Mutante.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Downloads\Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE59742-77E8-44CA-BF73-9E6E292377C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE75D4-CBCB-4A50-8C64-A21FD687EF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B05F9039-6664-43EA-9ED1-6A604005ABBA}"/>
+    <workbookView xWindow="14610" yWindow="690" windowWidth="3900" windowHeight="9060" firstSheet="1" activeTab="1" xr2:uid="{B05F9039-6664-43EA-9ED1-6A604005ABBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejemplo" sheetId="1" r:id="rId1"/>
+    <sheet name="Análisis Diagonal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="13">
   <si>
     <t>NO-MUTANTE</t>
   </si>
@@ -51,6 +52,27 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -74,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +115,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -117,11 +151,287 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -139,6 +449,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -156,6 +552,515 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62423</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDECBBEB-9489-442F-86B3-23A8C52034B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="120650"/>
+          <a:ext cx="1320275" cy="907423"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81796</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58119</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C06BA6-E352-46F0-968F-679FDC87EAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438489" y="1657458"/>
+          <a:ext cx="1074748" cy="738322"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66729</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB5B656-5843-400A-9FF1-4F27AEA9CAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="1306378"/>
+          <a:ext cx="1574908" cy="1074334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77491</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127F20A8-B5CA-4B05-8DEA-24E1E5D2D61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683553" y="1435746"/>
+          <a:ext cx="1111667" cy="758331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>204979</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90407</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C8D48C-FF1B-4920-8D79-D1390FA090E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="204979" y="2694609"/>
+          <a:ext cx="1895341" cy="1313705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152337</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130342</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector recto de flecha 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3F70FE-464D-457B-9564-5F5A4090B6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="439758" y="3026372"/>
+          <a:ext cx="1415110" cy="970318"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185759</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91334</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector recto de flecha 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCB199F-2CEE-4F30-837E-58A1964D5D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="760601" y="2855925"/>
+          <a:ext cx="1342680" cy="920654"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209154</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96921</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58077</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBA42E8-5315-4678-A770-088DA82BA1C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071417" y="2862609"/>
+          <a:ext cx="1037451" cy="711363"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215838</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>135451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150507</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto de flecha 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2763494D-E80E-4A71-AD51-E794CFF09B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503259" y="3256977"/>
+          <a:ext cx="1084353" cy="743523"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,226 +1360,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24397B61-BADB-473D-84C8-339168C4A9E1}">
-  <dimension ref="C1:O9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.90625" style="1"/>
-    <col min="3" max="8" width="4.08984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" style="1" customWidth="1"/>
-    <col min="10" max="15" width="4.08984375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="6" width="4.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="4.08984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
+      <c r="I6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>2</v>
+      <c r="L6" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>3</v>
@@ -682,63 +1592,487 @@
       <c r="K8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:O2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C924C2A-D8FE-44BD-8B9E-ABFC08431342}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="11" width="4.08984375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>